--- a/astar_benchmark.xlsx
+++ b/astar_benchmark.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -773,47 +773,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-11-04 07:01:12.874749</t>
+          <t>2022-11-04 12:20:47.352480</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2022-11-04 07:01:13.246815</t>
+          <t>2022-11-04 12:20:47.714294</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2022-11-04 07:01:13.630105</t>
+          <t>2022-11-04 12:20:48.094068</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2022-11-04 07:01:14.012256</t>
+          <t>2022-11-04 12:20:48.470405</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2022-11-04 07:01:14.391326</t>
+          <t>2022-11-04 12:20:48.870091</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2022-11-04 07:01:14.825189</t>
+          <t>2022-11-04 12:20:49.328698</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2022-11-04 07:01:15.217865</t>
+          <t>2022-11-04 12:20:49.713323</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2022-11-04 07:01:15.622198</t>
+          <t>2022-11-04 12:20:50.113100</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2022-11-04 07:01:16.031677</t>
+          <t>2022-11-04 12:20:50.497640</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -823,22 +823,22 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2022-11-04 07:01:19.434065</t>
+          <t>2022-11-04 12:20:53.892093</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2022-11-04 07:01:19.942065</t>
+          <t>2022-11-04 12:20:54.295457</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2022-11-04 07:01:20.421190</t>
+          <t>2022-11-04 12:20:54.729401</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-11-04 07:01:20.807942</t>
+          <t>2022-11-04 12:20:55.108328</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -848,22 +848,22 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2022-11-04 07:01:24.305184</t>
+          <t>2022-11-04 12:20:58.599868</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>2022-11-04 07:01:24.730739</t>
+          <t>2022-11-04 12:20:59.018496</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2022-11-04 07:01:25.429998</t>
+          <t>2022-11-04 12:20:59.699343</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2022-11-04 07:01:26.010267</t>
+          <t>2022-11-04 12:21:00.213944</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2022-11-04 07:01:29.423421</t>
+          <t>2022-11-04 12:21:03.666078</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>2022-11-04 07:01:29.847795</t>
+          <t>2022-11-04 12:21:04.076742</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -888,12 +888,12 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2022-11-04 07:01:33.313236</t>
+          <t>2022-11-04 12:21:07.527310</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2022-11-04 07:01:33.803637</t>
+          <t>2022-11-04 12:21:08.006136</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -903,37 +903,37 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2022-11-04 07:01:37.254199</t>
+          <t>2022-11-04 12:21:11.444059</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2022-11-04 07:07:01.890537</t>
+          <t>2022-11-04 12:26:35.936122</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>2022-11-04 07:01:40.701501</t>
+          <t>2022-11-04 12:21:14.860947</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2022-11-04 07:01:42.130415</t>
+          <t>2022-11-04 12:21:16.204560</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>2022-11-04 07:01:42.637839</t>
+          <t>2022-11-04 12:21:16.704561</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>2022-11-04 07:01:43.274599</t>
+          <t>2022-11-04 12:21:17.328298</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>2022-11-04 07:01:43.799260</t>
+          <t>2022-11-04 12:21:17.849945</t>
         </is>
       </c>
     </row>
@@ -945,47 +945,47 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0:00:00.001051</t>
+          <t>0:00:00.001108</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0:00:00.004976</t>
+          <t>0:00:00.005412</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:00:00.005156</t>
+          <t>0:00:00.005574</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0:00:00.014058</t>
+          <t>0:00:00.019694</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:00:00.061012</t>
+          <t>0:00:00.067917</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0:00:00.020132</t>
+          <t>0:00:00.020721</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0:00:00.031506</t>
+          <t>0:00:00.031790</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0:00:00.009379</t>
+          <t>0:00:00.009283</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0:00:00.020792</t>
+          <t>0:00:00.022215</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -995,22 +995,22 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0:00:00.039017</t>
+          <t>0:00:00.037236</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0:00:00.091173</t>
+          <t>0:00:00.071018</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0:00:00.017980</t>
+          <t>0:00:00.018299</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0:00:00.119393</t>
+          <t>0:00:00.118659</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1020,22 +1020,22 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0:00:00.056361</t>
+          <t>0:00:00.056900</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0:00:00.317625</t>
+          <t>0:00:00.316129</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0:00:00.203491</t>
+          <t>0:00:00.156991</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0:00:00.032005</t>
+          <t>0:00:00.031888</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0:00:00.046178</t>
+          <t>0:00:00.045270</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0:00:00.087685</t>
+          <t>0:00:00.086655</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1060,12 +1060,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0:00:00.112712</t>
+          <t>0:00:00.111500</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0:00:00.070352</t>
+          <t>0:00:00.070633</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1075,37 +1075,37 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0:00:00.058832</t>
+          <t>0:00:00.058024</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0:00:48.556775</t>
+          <t>0:00:47.574911</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0:00:01.000753</t>
+          <t>0:00:00.976162</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0:00:00.133046</t>
+          <t>0:00:00.132304</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0:00:00.262053</t>
+          <t>0:00:00.257523</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>0:00:00.155901</t>
+          <t>0:00:00.154375</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0:00:02.588512</t>
+          <t>0:00:02.555596</t>
         </is>
       </c>
     </row>
@@ -1450,6 +1450,178 @@
       <c r="AH6" t="inlineStr">
         <is>
           <t>16349</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>PROCESS MEMORY</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>64536576</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>64503808</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>64274432</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>65372160</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>65454080</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>65748992</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>65536000</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>65372160</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>65404928</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>65667072</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>66027520</t>
+        </is>
+      </c>
+      <c r="N7" t="inlineStr">
+        <is>
+          <t>64487424</t>
+        </is>
+      </c>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>65208320</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
+        <is>
+          <t>64503808</t>
+        </is>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>67469312</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>67272704</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>65306624</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t>64602112</t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>66076672</t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>65323008</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>66207744</t>
+        </is>
+      </c>
+      <c r="AA7" t="inlineStr">
+        <is>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="AB7" t="inlineStr">
+        <is>
+          <t>65650688</t>
+        </is>
+      </c>
+      <c r="AC7" t="inlineStr">
+        <is>
+          <t>97206272</t>
+        </is>
+      </c>
+      <c r="AD7" t="inlineStr">
+        <is>
+          <t>69943296</t>
+        </is>
+      </c>
+      <c r="AE7" t="inlineStr">
+        <is>
+          <t>66207744</t>
+        </is>
+      </c>
+      <c r="AF7" t="inlineStr">
+        <is>
+          <t>67092480</t>
+        </is>
+      </c>
+      <c r="AG7" t="inlineStr">
+        <is>
+          <t>66584576</t>
+        </is>
+      </c>
+      <c r="AH7" t="inlineStr">
+        <is>
+          <t>71876608</t>
         </is>
       </c>
     </row>

--- a/astar_benchmark.xlsx
+++ b/astar_benchmark.xlsx
@@ -773,47 +773,47 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:20:47.352480</t>
+          <t>2022-11-05 21:14:53.790732</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:20:47.714294</t>
+          <t>2022-11-05 21:14:54.163342</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:20:48.094068</t>
+          <t>2022-11-05 21:14:54.539083</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:20:48.470405</t>
+          <t>2022-11-05 21:14:54.922849</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:20:48.870091</t>
+          <t>2022-11-05 21:14:55.316499</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:20:49.328698</t>
+          <t>2022-11-05 21:14:55.752212</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:20:49.713323</t>
+          <t>2022-11-05 21:14:56.151788</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:20:50.113100</t>
+          <t>2022-11-05 21:14:56.663363</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:20:50.497640</t>
+          <t>2022-11-05 21:14:57.130392</t>
         </is>
       </c>
       <c r="K3" t="inlineStr">
@@ -823,22 +823,22 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:20:53.892093</t>
+          <t>2022-11-05 21:15:00.529967</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:20:54.295457</t>
+          <t>2022-11-05 21:15:00.937389</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:20:54.729401</t>
+          <t>2022-11-05 21:15:01.398413</t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:20:55.108328</t>
+          <t>2022-11-05 21:15:01.792270</t>
         </is>
       </c>
       <c r="P3" t="inlineStr">
@@ -848,22 +848,22 @@
       </c>
       <c r="Q3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:20:58.599868</t>
+          <t>2022-11-05 21:15:05.287830</t>
         </is>
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:20:59.018496</t>
+          <t>2022-11-05 21:15:05.711913</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:20:59.699343</t>
+          <t>2022-11-05 21:15:06.417243</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:21:00.213944</t>
+          <t>2022-11-05 21:15:06.964719</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
@@ -873,12 +873,12 @@
       </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:21:03.666078</t>
+          <t>2022-11-05 21:15:10.378638</t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:21:04.076742</t>
+          <t>2022-11-05 21:15:10.791246</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
@@ -888,12 +888,12 @@
       </c>
       <c r="Y3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:21:07.527310</t>
+          <t>2022-11-05 21:15:14.260798</t>
         </is>
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:21:08.006136</t>
+          <t>2022-11-05 21:15:14.745689</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -903,37 +903,37 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:21:11.444059</t>
+          <t>2022-11-05 21:15:18.200179</t>
         </is>
       </c>
       <c r="AC3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:26:35.936122</t>
+          <t>2022-11-05 21:20:42.965663</t>
         </is>
       </c>
       <c r="AD3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:21:14.860947</t>
+          <t>2022-11-05 21:15:21.646428</t>
         </is>
       </c>
       <c r="AE3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:21:16.204560</t>
+          <t>2022-11-05 21:15:23.099738</t>
         </is>
       </c>
       <c r="AF3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:21:16.704561</t>
+          <t>2022-11-05 21:15:23.695801</t>
         </is>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:21:17.328298</t>
+          <t>2022-11-05 21:15:24.350417</t>
         </is>
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t>2022-11-04 12:21:17.849945</t>
+          <t>2022-11-05 21:21:32.505998</t>
         </is>
       </c>
     </row>
@@ -945,47 +945,47 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0:00:00.001108</t>
+          <t>0:00:00.001111</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0:00:00.005412</t>
+          <t>0:00:00.005903</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0:00:00.005574</t>
+          <t>0:00:00.005882</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0:00:00.019694</t>
+          <t>0:00:00.014892</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0:00:00.067917</t>
+          <t>0:00:00.062360</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0:00:00.020721</t>
+          <t>0:00:00.020936</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>0:00:00.031790</t>
+          <t>0:00:00.033029</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>0:00:00.009283</t>
+          <t>0:00:00.011331</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>0:00:00.022215</t>
+          <t>0:00:00.022326</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
@@ -995,22 +995,22 @@
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>0:00:00.037236</t>
+          <t>0:00:00.038012</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>0:00:00.071018</t>
+          <t>0:00:00.073062</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>0:00:00.018299</t>
+          <t>0:00:00.018689</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>0:00:00.118659</t>
+          <t>0:00:00.120985</t>
         </is>
       </c>
       <c r="P4" t="inlineStr">
@@ -1020,22 +1020,22 @@
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>0:00:00.056900</t>
+          <t>0:00:00.057519</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>0:00:00.316129</t>
+          <t>0:00:00.321589</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>0:00:00.156991</t>
+          <t>0:00:00.160024</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>0:00:00.031888</t>
+          <t>0:00:00.033252</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
@@ -1045,12 +1045,12 @@
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t>0:00:00.045270</t>
+          <t>0:00:00.046460</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>0:00:00.086655</t>
+          <t>0:00:00.088973</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
@@ -1060,12 +1060,12 @@
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>0:00:00.111500</t>
+          <t>0:00:00.114791</t>
         </is>
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>0:00:00.070633</t>
+          <t>0:00:00.071636</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -1075,37 +1075,37 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>0:00:00.058024</t>
+          <t>0:00:00.061729</t>
         </is>
       </c>
       <c r="AC4" t="inlineStr">
         <is>
-          <t>0:00:47.574911</t>
+          <t>0:00:49.147552</t>
         </is>
       </c>
       <c r="AD4" t="inlineStr">
         <is>
-          <t>0:00:00.976162</t>
+          <t>0:00:01.063592</t>
         </is>
       </c>
       <c r="AE4" t="inlineStr">
         <is>
-          <t>0:00:00.132304</t>
+          <t>0:00:00.135028</t>
         </is>
       </c>
       <c r="AF4" t="inlineStr">
         <is>
-          <t>0:00:00.257523</t>
+          <t>0:00:00.273092</t>
         </is>
       </c>
       <c r="AG4" t="inlineStr">
         <is>
-          <t>0:00:00.154375</t>
+          <t>0:00:00.164194</t>
         </is>
       </c>
       <c r="AH4" t="inlineStr">
         <is>
-          <t>0:00:02.555596</t>
+          <t>0:00:02.589020</t>
         </is>
       </c>
     </row>
@@ -1461,47 +1461,47 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>64536576</t>
+          <t>49152</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>64503808</t>
+          <t>131072</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>64274432</t>
+          <t>131072</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>65372160</t>
+          <t>196608</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>65454080</t>
+          <t>770048</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>65748992</t>
+          <t>278528</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>65536000</t>
+          <t>409600</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>65372160</t>
+          <t>294912</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>65404928</t>
+          <t>376832</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
@@ -1511,22 +1511,22 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>65667072</t>
+          <t>557056</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>66027520</t>
+          <t>884736</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>64487424</t>
+          <t>245760</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>65208320</t>
+          <t>1327104</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
@@ -1536,22 +1536,22 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>64503808</t>
+          <t>589824</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>67469312</t>
+          <t>3014656</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>67272704</t>
+          <t>1703936</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>65306624</t>
+          <t>409600</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
@@ -1561,12 +1561,12 @@
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>64602112</t>
+          <t>540672</t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>66076672</t>
+          <t>1015808</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
@@ -1576,12 +1576,12 @@
       </c>
       <c r="Y7" t="inlineStr">
         <is>
-          <t>65323008</t>
+          <t>1179648</t>
         </is>
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>66207744</t>
+          <t>868352</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1591,37 +1591,37 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>65650688</t>
+          <t>688128</t>
         </is>
       </c>
       <c r="AC7" t="inlineStr">
         <is>
-          <t>97206272</t>
+          <t>34291712</t>
         </is>
       </c>
       <c r="AD7" t="inlineStr">
         <is>
-          <t>69943296</t>
+          <t>5259264</t>
         </is>
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>66207744</t>
+          <t>1376256</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
         <is>
-          <t>67092480</t>
+          <t>2457600</t>
         </is>
       </c>
       <c r="AG7" t="inlineStr">
         <is>
-          <t>66584576</t>
+          <t>1638400</t>
         </is>
       </c>
       <c r="AH7" t="inlineStr">
         <is>
-          <t>71876608</t>
+          <t>7389184</t>
         </is>
       </c>
     </row>
